--- a/data/trans_bre/P62-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P62-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-25.36570331085941</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-21.13688163521203</v>
+        <v>-21.13688163521205</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.5065650603171107</v>
@@ -649,7 +649,7 @@
         <v>-0.3500509037283335</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.2723864853984656</v>
+        <v>-0.2723864853984657</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-43.99739870643444</v>
+        <v>-44.17166779684733</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-29.41363936709399</v>
+        <v>-29.08432312748851</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-30.66557939385522</v>
+        <v>-30.29952809814637</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-25.57162702466343</v>
+        <v>-25.80384316303924</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5461653868794027</v>
+        <v>-0.5455742435859493</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.406589396383997</v>
+        <v>-0.4040348539433746</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4114107831417507</v>
+        <v>-0.4049443365208909</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3194046181287682</v>
+        <v>-0.3222052403588556</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-35.60221748744702</v>
+        <v>-35.55614531976403</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-19.79187778811037</v>
+        <v>-19.97438150104032</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-20.65121439943194</v>
+        <v>-20.05855519579664</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-16.09894180377997</v>
+        <v>-16.26213896229551</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.4668016431136764</v>
+        <v>-0.463907383471574</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.2937451037640367</v>
+        <v>-0.2976810593195764</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.2957642760788417</v>
+        <v>-0.2859883561175336</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.2192275243308074</v>
+        <v>-0.2185049550664899</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-25.78827988551035</v>
+        <v>-25.4872459434922</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-15.75690200570212</v>
+        <v>-15.54292559445941</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-17.90477347786856</v>
+        <v>-18.6422391243416</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-23.86894661014006</v>
+        <v>-23.77028583325563</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7792434444026974</v>
+        <v>-0.7753616524679657</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5437142374791888</v>
+        <v>-0.5365038561556758</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4960942354153532</v>
+        <v>-0.5127728320815621</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4973501173364932</v>
+        <v>-0.4932365075580713</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-16.97853027963962</v>
+        <v>-17.22682847108304</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-8.224128669329939</v>
+        <v>-8.526521613723496</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-10.6811769156855</v>
+        <v>-10.97001312749573</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-15.4705056192497</v>
+        <v>-14.90959103339321</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.6361682652915276</v>
+        <v>-0.6347323573405048</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3288078085298503</v>
+        <v>-0.3393705122967143</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.334435368857907</v>
+        <v>-0.3400128204689908</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.3670800939788103</v>
+        <v>-0.3567911621966787</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-13.65710770018783</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-22.0670973299925</v>
+        <v>-22.06709732999249</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.4684473984331307</v>
@@ -849,7 +849,7 @@
         <v>-0.380378070729198</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.3897181672922401</v>
+        <v>-0.38971816729224</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-30.09920198098025</v>
+        <v>-29.81814221693229</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-21.80045393870016</v>
+        <v>-22.80465407163429</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-22.42319884624133</v>
+        <v>-22.6397246958711</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-31.20485861375313</v>
+        <v>-30.00633624790617</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6310305851135815</v>
+        <v>-0.6187801303994177</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6376031007817045</v>
+        <v>-0.6548338175246938</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5376131064804948</v>
+        <v>-0.5763541029164096</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4981503242423856</v>
+        <v>-0.4950213354218054</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-8.286052589325626</v>
+        <v>-8.935657940097135</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.389456381543343</v>
+        <v>-2.997816644383891</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.378689485800706</v>
+        <v>-4.119088181428592</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-13.2887978125023</v>
+        <v>-12.62331621813712</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.2270836795921555</v>
+        <v>-0.2332440092707269</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.09017299540014817</v>
+        <v>-0.1332210009101298</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.1337560715681081</v>
+        <v>-0.1465141797631683</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.2650733346833024</v>
+        <v>-0.2481367504006298</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-16.25391449757695</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-18.26903344076807</v>
+        <v>-18.26903344076808</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.5484449197271321</v>
@@ -949,7 +949,7 @@
         <v>-0.3497513868699202</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.331686137469933</v>
+        <v>-0.3316861374699331</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-32.90225692495298</v>
+        <v>-33.2513967814637</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-18.14093567929446</v>
+        <v>-17.9631105204787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-19.17129372649454</v>
+        <v>-19.15017965183159</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-21.57243696635737</v>
+        <v>-21.82170588627052</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5848724466590308</v>
+        <v>-0.5852195637807648</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3955701394167493</v>
+        <v>-0.3951232312537527</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3992359643401479</v>
+        <v>-0.3999391216908476</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3747783721258203</v>
+        <v>-0.3792110213936287</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-26.87588427877579</v>
+        <v>-26.92093112817996</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-12.10609153410267</v>
+        <v>-11.99778831061637</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-13.23791429561041</v>
+        <v>-13.20633508277007</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-14.77381042086915</v>
+        <v>-15.28576511110187</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.508741826220421</v>
+        <v>-0.5062074243687761</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2836676470978364</v>
+        <v>-0.2836573004578729</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2962046299916071</v>
+        <v>-0.2939760895915205</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2791040331393078</v>
+        <v>-0.2885421823260331</v>
       </c>
     </row>
     <row r="16">
